--- a/вариант 2024 2025/C.Горбачёв/3/19.xlsx
+++ b/вариант 2024 2025/C.Горбачёв/3/19.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\jakov\вариант 2024 2025\C.Горбачёв\3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="19" sheetId="1" r:id="rId1"/>
@@ -527,24 +522,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -626,7 +621,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -661,7 +656,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -838,7 +833,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -848,11 +843,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GJG1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AFM1" workbookViewId="0">
-      <selection activeCell="KI2" sqref="KI2"/>
+    <sheetView tabSelected="1" topLeftCell="JD1" workbookViewId="0">
+      <selection activeCell="JL1" sqref="JL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4999" x14ac:dyDescent="0.25">
       <c r="A1">
